--- a/data/trans_dic/P29_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P29_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.6082239124256201</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.6310042000759736</v>
+        <v>0.6310042000759737</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.281690708296703</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4751440856458734</v>
+        <v>0.4739711090695155</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5305407356407061</v>
+        <v>0.5366542819076863</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5472000619635572</v>
+        <v>0.5454794237300112</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5770232611256211</v>
+        <v>0.573245146230968</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2330530308160519</v>
+        <v>0.2289729740208889</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3226550849916626</v>
+        <v>0.3274116741228345</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3122131015264535</v>
+        <v>0.318181913048629</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4203961002039379</v>
+        <v>0.4202846048513889</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.369580989576085</v>
+        <v>0.369079847076388</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4482913496572561</v>
+        <v>0.4482717058630195</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4456215672469039</v>
+        <v>0.4492419766841923</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5104127754262161</v>
+        <v>0.510799240670198</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5981548296332735</v>
+        <v>0.59539477088091</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6511572852565743</v>
+        <v>0.6533215391316143</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6658971386190349</v>
+        <v>0.6639793357411896</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6894711537738408</v>
+        <v>0.6855691498142514</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3441174501699775</v>
+        <v>0.3418411626602348</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4489573936941619</v>
+        <v>0.4486623843423244</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4256515212325555</v>
+        <v>0.4276093593590922</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5146076958565812</v>
+        <v>0.5067257669999948</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4512949376993323</v>
+        <v>0.4560226673361223</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5363874885133298</v>
+        <v>0.5325332546626966</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5359456321445926</v>
+        <v>0.5306097824700765</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5846680518944877</v>
+        <v>0.588330216732854</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4181892641123401</v>
+        <v>0.4169736871367815</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5657534804372862</v>
+        <v>0.5666925752070673</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4852075654524304</v>
+        <v>0.4886569800908057</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5371686300022415</v>
+        <v>0.5343316521177968</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1162745465561115</v>
+        <v>0.1135456030511075</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2496362618341534</v>
+        <v>0.2492891145247133</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1598058939102219</v>
+        <v>0.1637715895860123</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2746461441164867</v>
+        <v>0.2741525241409203</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2716727387614898</v>
+        <v>0.2745823641191669</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4150331172275796</v>
+        <v>0.4142281885913138</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3287850907661072</v>
+        <v>0.3314179819840554</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.417030610560419</v>
+        <v>0.4154212494899229</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.507760969047844</v>
+        <v>0.5102855850780086</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6597868754463673</v>
+        <v>0.6577982074503508</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5812311901702482</v>
+        <v>0.5798018057168717</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6445829544728959</v>
+        <v>0.6459830277565229</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1785241698661458</v>
+        <v>0.1781474980912955</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3302364313943496</v>
+        <v>0.3345504820438788</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2312680201963528</v>
+        <v>0.2319561871060072</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3479959228091099</v>
+        <v>0.3494108736196072</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3293963308298363</v>
+        <v>0.3319669965695222</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4812981189724005</v>
+        <v>0.4797074121529478</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3917810085053832</v>
+        <v>0.3907461139048369</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4805519166734528</v>
+        <v>0.4813176576125658</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.3641818427150076</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.309288235228799</v>
+        <v>0.3092882352287991</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.4293549488531455</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5478097419589582</v>
+        <v>0.5555975754437796</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5724259860878571</v>
+        <v>0.561693661891545</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5974622468136545</v>
+        <v>0.5964728857217529</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5621659302088891</v>
+        <v>0.558683903312468</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.212462743808262</v>
+        <v>0.2156194817643564</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3110215114040948</v>
+        <v>0.3117134855736904</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3149809733269565</v>
+        <v>0.3115047822390791</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2705593662340764</v>
+        <v>0.2677647073132799</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.392706120062884</v>
+        <v>0.3919811363777889</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4531418282771244</v>
+        <v>0.4500592073976672</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4640016168359611</v>
+        <v>0.4664683072725359</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4191921513115882</v>
+        <v>0.4162752301204126</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6607569834227061</v>
+        <v>0.6614754974531014</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6774492131316329</v>
+        <v>0.6751621544783792</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6984038044131101</v>
+        <v>0.6951212393327106</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6642372913681333</v>
+        <v>0.6644952873254719</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3100715942338443</v>
+        <v>0.3072508173303996</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4250846288061058</v>
+        <v>0.4232708045203123</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4157562442988373</v>
+        <v>0.4147263918997921</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3548876974484247</v>
+        <v>0.3525892721248168</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4671048743447655</v>
+        <v>0.4651634097059781</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5322176831492251</v>
+        <v>0.5293609953065183</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5398630860004772</v>
+        <v>0.543143849192964</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4899078839364697</v>
+        <v>0.4888710063803904</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.3945355557496414</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.3783320858135271</v>
+        <v>0.3783320858135272</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.5051471714371143</v>
@@ -1105,7 +1105,7 @@
         <v>0.5100129609934796</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.484619548379684</v>
+        <v>0.4846195483796839</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.609245635250056</v>
+        <v>0.6105007953449231</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4598159612851425</v>
+        <v>0.4576710203969843</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.582783179258063</v>
+        <v>0.5842642269870393</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5314714740449517</v>
+        <v>0.531621805107053</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3050094243985675</v>
+        <v>0.3049821416608679</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1840952966835634</v>
+        <v>0.18400719423348</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3454170627707641</v>
+        <v>0.3431096645552948</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3346335733438593</v>
+        <v>0.3320655812585886</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4650538957542649</v>
+        <v>0.4704412795411926</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3286633459422617</v>
+        <v>0.3321254909892677</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4737823852498975</v>
+        <v>0.471079215780118</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4419028075885273</v>
+        <v>0.4425332561085778</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7063465734468267</v>
+        <v>0.7151741295027293</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5637150200023371</v>
+        <v>0.5649525558223177</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6799154107500854</v>
+        <v>0.6865895191208368</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6707025991339219</v>
+        <v>0.6696095119406918</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.403655411089568</v>
+        <v>0.4026431574067207</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2731415785725105</v>
+        <v>0.2706099854471143</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4462753470634759</v>
+        <v>0.4479331760973342</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4198907356248344</v>
+        <v>0.4223458382429155</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5405086019204042</v>
+        <v>0.5446588573511327</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4030767981616173</v>
+        <v>0.4016232420460799</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5458971051304694</v>
+        <v>0.5475292784213469</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5246909255175158</v>
+        <v>0.5249276803543734</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.1714378926519204</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.06856069169221486</v>
+        <v>0.06856069169221483</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.3508576059266403</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.401043054153236</v>
+        <v>0.4126435377293187</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5256058085961106</v>
+        <v>0.5244361573757815</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3657453176178271</v>
+        <v>0.3688571458307601</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1437639794138027</v>
+        <v>0.1464773512325006</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1762294551087399</v>
+        <v>0.1753763699996565</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1916176479985192</v>
+        <v>0.1883397528748602</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1288017649879684</v>
+        <v>0.1267248475997502</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04521578984615923</v>
+        <v>0.04562567355245122</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2999221897935515</v>
+        <v>0.3012048100056146</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3777386889966351</v>
+        <v>0.3733701853307597</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.257619892484309</v>
+        <v>0.2572827519748341</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1008143763013519</v>
+        <v>0.1013550593279397</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5490947573113182</v>
+        <v>0.5449662757363044</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6720600374952889</v>
+        <v>0.6699686366517926</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5040417288996246</v>
+        <v>0.5058461404010903</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.235541909393223</v>
+        <v>0.2419754998403029</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2906129743322483</v>
+        <v>0.2943234767125016</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3086070341289182</v>
+        <v>0.3064422900272995</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.222226691867033</v>
+        <v>0.2277255130814713</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1048104918683458</v>
+        <v>0.1050468836988136</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3961071672246597</v>
+        <v>0.3974847409808464</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4793195012056681</v>
+        <v>0.4710494383639213</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.342495350193214</v>
+        <v>0.3479925237742028</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.156333624883595</v>
+        <v>0.1559525119372153</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.3866540022268657</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.4035638065978053</v>
+        <v>0.4035638065978051</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.5575446236499523</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6609016731940199</v>
+        <v>0.6546362972325253</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6157308955453228</v>
+        <v>0.6107790790599028</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6610164276267959</v>
+        <v>0.6576325266785861</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5844894410259653</v>
+        <v>0.5837474231687831</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.345583701113598</v>
+        <v>0.3379547301169124</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2871615795713537</v>
+        <v>0.2877662992544488</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3324191075568382</v>
+        <v>0.3276609068699616</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3588705897350834</v>
+        <v>0.3549080534313869</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.5151604553185808</v>
+        <v>0.5154700404008794</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.4655322720894715</v>
+        <v>0.467038022546248</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.5085839196489049</v>
+        <v>0.5097851019175909</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.4863862165589176</v>
+        <v>0.4874035499906055</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.765681927356784</v>
+        <v>0.7637948155007473</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7326279400543954</v>
+        <v>0.7311757516397184</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7708439092411451</v>
+        <v>0.7742317095298906</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6822407575466515</v>
+        <v>0.6886113417312921</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4681552736044468</v>
+        <v>0.4561502869933759</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4021185675616022</v>
+        <v>0.3979214216836661</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4448580932962319</v>
+        <v>0.4445935854257688</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4517590861643662</v>
+        <v>0.4540104682359771</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.6012352640351758</v>
+        <v>0.6002755099720514</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.5516595746838938</v>
+        <v>0.5542978725233608</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.5966490210394311</v>
+        <v>0.5961549455275731</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.5571236985120673</v>
+        <v>0.5586757849955021</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.5869285130926959</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5858727099211042</v>
+        <v>0.5858727099211041</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.2074222849483915</v>
@@ -1501,7 +1501,7 @@
         <v>0.3775642198939633</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.418296856380187</v>
+        <v>0.4182968563801868</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.3370557803683447</v>
@@ -1513,7 +1513,7 @@
         <v>0.4796217732221323</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.499119403254797</v>
+        <v>0.4991194032547971</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4305213058393191</v>
+        <v>0.4281250620034738</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5591919159071177</v>
+        <v>0.5622451319200638</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.546603713793008</v>
+        <v>0.5468043495795022</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5444876124209606</v>
+        <v>0.5462569344688146</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.175737152891664</v>
+        <v>0.1792927801304751</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2738937751160947</v>
+        <v>0.26927858248843</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3425841823880345</v>
+        <v>0.3423951048145622</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3828581579908625</v>
+        <v>0.3844110847614088</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3111809820549697</v>
+        <v>0.3087851567028278</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.4209769190406731</v>
+        <v>0.4214620204142474</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4487124647997603</v>
+        <v>0.4538908000364591</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.4720635766711803</v>
+        <v>0.4698801013398984</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5090669814375658</v>
+        <v>0.5110613784068833</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6377803857972371</v>
+        <v>0.643843664143151</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6255813878465073</v>
+        <v>0.6250312425028035</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.631351316906089</v>
+        <v>0.6302847637994031</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2389248580499335</v>
+        <v>0.2416667245257009</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3473085686325525</v>
+        <v>0.3464618385203565</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4182771766482861</v>
+        <v>0.418337137698108</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4523692370491678</v>
+        <v>0.4535987539206784</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3645339163042967</v>
+        <v>0.3651701700974769</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.4798031369201756</v>
+        <v>0.4782527817839826</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.5077649876765724</v>
+        <v>0.5076819730080737</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.5233704673266516</v>
+        <v>0.5253267457351565</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.5862262665204723</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.5592039235607281</v>
+        <v>0.559203923560728</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.3062349725992938</v>
@@ -1649,7 +1649,7 @@
         <v>0.4503752803880863</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.4444902508995835</v>
+        <v>0.4444902508995834</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.6246534579766513</v>
+        <v>0.6266051273999703</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.5492871635690304</v>
+        <v>0.548574434061853</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.5458134917752988</v>
+        <v>0.553563845494627</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.5202758848027941</v>
+        <v>0.5243655677162374</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2740219668892701</v>
+        <v>0.2717921534508363</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2323620097690418</v>
+        <v>0.2335116368420078</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2890345252449891</v>
+        <v>0.2897726584775153</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3023451157708626</v>
+        <v>0.3059866722726017</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.4543008020451561</v>
+        <v>0.4504323595990551</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.3934640965896088</v>
+        <v>0.3951157800687479</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.4231959471793247</v>
+        <v>0.4262040434858292</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.4206644349820338</v>
+        <v>0.4194226003250761</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.6956675731815805</v>
+        <v>0.6982648290537207</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.6208179463579349</v>
+        <v>0.6198457481571434</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.6186704803981291</v>
+        <v>0.6248639206438538</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.5962095315933</v>
+        <v>0.5972734686616908</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3424024183095581</v>
+        <v>0.3411050055640398</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2971442802388625</v>
+        <v>0.2963233660529717</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3551055030147612</v>
+        <v>0.353027427651434</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.360062604867765</v>
+        <v>0.3657612465182788</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.5069912374962116</v>
+        <v>0.5043486474469301</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.4473115261360757</v>
+        <v>0.4473541009659973</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.476598697295442</v>
+        <v>0.4801091787215885</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.4711967563136948</v>
+        <v>0.4695091634026252</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.5568683724871063</v>
+        <v>0.5565381121046986</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.5797613428813038</v>
+        <v>0.5779652463914157</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.5759444107287379</v>
+        <v>0.573439454879819</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.5513029525160253</v>
+        <v>0.5514895018504656</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2503897932298049</v>
+        <v>0.2484804892989605</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2807506788307395</v>
+        <v>0.2822614337879117</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.3102422836390898</v>
+        <v>0.3094676576424689</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3356856257961684</v>
+        <v>0.3373246075142552</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.4055804652034533</v>
+        <v>0.4044185798886609</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.4313900566718109</v>
+        <v>0.4312437422799805</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.4447145143967174</v>
+        <v>0.4439416219361253</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.4448538803042219</v>
+        <v>0.444265964261615</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.590402892886401</v>
+        <v>0.591015818389501</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.6142046269486326</v>
+        <v>0.6134406279306226</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.6096669932340287</v>
+        <v>0.6090254850386954</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.5879442276979255</v>
+        <v>0.5895430519135003</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.281104229782964</v>
+        <v>0.2801662290495667</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3125867668061417</v>
+        <v>0.3127224894696961</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3416546922301981</v>
+        <v>0.3430953251051971</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.3659391402411011</v>
+        <v>0.3647115943756659</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.429426657605888</v>
+        <v>0.4282454789954624</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.456689816400249</v>
+        <v>0.4562003215927979</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.4692742991935429</v>
+        <v>0.4679289715026476</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.4689459074201456</v>
+        <v>0.4693071033751439</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>129719</v>
+        <v>129399</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>156371</v>
+        <v>158172</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>160746</v>
+        <v>160241</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>183981</v>
+        <v>182776</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>60789</v>
+        <v>59725</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>92681</v>
+        <v>94047</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>89825</v>
+        <v>91543</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>132871</v>
+        <v>132836</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>197300</v>
+        <v>197033</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>260898</v>
+        <v>260887</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>259114</v>
+        <v>261219</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>324064</v>
+        <v>324310</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>163302</v>
+        <v>162549</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>191921</v>
+        <v>192559</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>195615</v>
+        <v>195051</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>219834</v>
+        <v>218590</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>89759</v>
+        <v>89165</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>128961</v>
+        <v>128876</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>122462</v>
+        <v>123025</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>162647</v>
+        <v>160156</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>240923</v>
+        <v>243447</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>312168</v>
+        <v>309925</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>311634</v>
+        <v>308532</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>371209</v>
+        <v>373534</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>206199</v>
+        <v>205599</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>286004</v>
+        <v>286478</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>243853</v>
+        <v>245587</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>283834</v>
+        <v>282335</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>58596</v>
+        <v>57221</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>130751</v>
+        <v>130569</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>83418</v>
+        <v>85488</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>149925</v>
+        <v>149655</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>270864</v>
+        <v>273765</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>427190</v>
+        <v>426362</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>336863</v>
+        <v>339561</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>448004</v>
+        <v>446275</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>250364</v>
+        <v>251609</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>333540</v>
+        <v>332535</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>292112</v>
+        <v>291394</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>340591</v>
+        <v>341330</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>89967</v>
+        <v>89777</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>172966</v>
+        <v>175226</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>120721</v>
+        <v>121080</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>189965</v>
+        <v>190737</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>328416</v>
+        <v>330979</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>495396</v>
+        <v>493759</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>401407</v>
+        <v>400347</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>516243</v>
+        <v>517066</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>174667</v>
+        <v>177150</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>185492</v>
+        <v>182015</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>189755</v>
+        <v>189440</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>177640</v>
+        <v>176540</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>71263</v>
+        <v>72321</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>106065</v>
+        <v>106301</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>105931</v>
+        <v>104762</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>96422</v>
+        <v>95426</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>256931</v>
+        <v>256457</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>301369</v>
+        <v>299319</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>303415</v>
+        <v>305028</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>281854</v>
+        <v>279893</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>210680</v>
+        <v>210909</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>219525</v>
+        <v>218784</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>221814</v>
+        <v>220771</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>209894</v>
+        <v>209976</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>104002</v>
+        <v>103056</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>144962</v>
+        <v>144344</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>139823</v>
+        <v>139476</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>126475</v>
+        <v>125656</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>305607</v>
+        <v>304337</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>353960</v>
+        <v>352060</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>353022</v>
+        <v>355167</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>329402</v>
+        <v>328705</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>218519</v>
+        <v>218969</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>171963</v>
+        <v>171161</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>215609</v>
+        <v>216157</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>198316</v>
+        <v>198372</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>113298</v>
+        <v>113287</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>71604</v>
+        <v>71570</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>133774</v>
+        <v>132881</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>141202</v>
+        <v>140119</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>339548</v>
+        <v>343482</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>250748</v>
+        <v>253389</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>358770</v>
+        <v>356723</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>351360</v>
+        <v>351861</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>253346</v>
+        <v>256512</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>210819</v>
+        <v>211282</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>251544</v>
+        <v>254013</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>250269</v>
+        <v>249861</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>149940</v>
+        <v>149564</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>106239</v>
+        <v>105254</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>172835</v>
+        <v>173477</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>177178</v>
+        <v>178213</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>394640</v>
+        <v>397670</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>307521</v>
+        <v>306412</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>413379</v>
+        <v>414615</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>417185</v>
+        <v>417374</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>81535</v>
+        <v>83894</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>111753</v>
+        <v>111505</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>77253</v>
+        <v>77910</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>29567</v>
+        <v>30125</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>36597</v>
+        <v>36420</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>42078</v>
+        <v>41358</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>28154</v>
+        <v>27700</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>10274</v>
+        <v>10367</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>123261</v>
+        <v>123788</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>163262</v>
+        <v>161374</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>110727</v>
+        <v>110582</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>43640</v>
+        <v>43874</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>111635</v>
+        <v>110796</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>142892</v>
+        <v>142447</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>106464</v>
+        <v>106845</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>48443</v>
+        <v>49766</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>60351</v>
+        <v>61122</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>67767</v>
+        <v>67292</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>48576</v>
+        <v>49778</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>23815</v>
+        <v>23868</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>162791</v>
+        <v>163357</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>207166</v>
+        <v>203592</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>147207</v>
+        <v>149570</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>67674</v>
+        <v>67509</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>178979</v>
+        <v>177283</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>168699</v>
+        <v>167342</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>173929</v>
+        <v>173038</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>157785</v>
+        <v>157585</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>96122</v>
+        <v>94000</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>80414</v>
+        <v>80583</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>90789</v>
+        <v>89489</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>94652</v>
+        <v>93607</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>282800</v>
+        <v>282970</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>257910</v>
+        <v>258745</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>272722</v>
+        <v>273366</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>259586</v>
+        <v>260129</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>207355</v>
+        <v>206844</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>200726</v>
+        <v>200328</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>202827</v>
+        <v>203718</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>184174</v>
+        <v>185893</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>130215</v>
+        <v>126875</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>112606</v>
+        <v>111430</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>121497</v>
+        <v>121425</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>119151</v>
+        <v>119745</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>330051</v>
+        <v>329524</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>305626</v>
+        <v>307088</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>319946</v>
+        <v>319681</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>297339</v>
+        <v>298168</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>264782</v>
+        <v>263308</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>370626</v>
+        <v>372649</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>358279</v>
+        <v>358410</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>389388</v>
+        <v>390653</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>112159</v>
+        <v>114428</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>190042</v>
+        <v>186840</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>236101</v>
+        <v>235970</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>293891</v>
+        <v>295083</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>389986</v>
+        <v>386984</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>571115</v>
+        <v>571773</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>603356</v>
+        <v>610319</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>699961</v>
+        <v>696724</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>313090</v>
+        <v>314317</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>422713</v>
+        <v>426732</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>410045</v>
+        <v>409685</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>451508</v>
+        <v>450746</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>152486</v>
+        <v>154236</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>240981</v>
+        <v>240394</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>288267</v>
+        <v>288308</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>347249</v>
+        <v>348193</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>456851</v>
+        <v>457648</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>650921</v>
+        <v>648817</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>682761</v>
+        <v>682649</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>776038</v>
+        <v>778938</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>464614</v>
+        <v>466066</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>427949</v>
+        <v>427393</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>424961</v>
+        <v>430995</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>415218</v>
+        <v>418481</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>214699</v>
+        <v>212952</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>190975</v>
+        <v>191920</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>238119</v>
+        <v>238727</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>250343</v>
+        <v>253358</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>693856</v>
+        <v>687948</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>629929</v>
+        <v>632574</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>678141</v>
+        <v>682961</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>684032</v>
+        <v>682013</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>517434</v>
+        <v>519366</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>483678</v>
+        <v>482921</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>481686</v>
+        <v>486508</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>475818</v>
+        <v>476667</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>268276</v>
+        <v>267260</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>244218</v>
+        <v>243544</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>292552</v>
+        <v>290840</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>298133</v>
+        <v>302852</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>774331</v>
+        <v>770295</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>716138</v>
+        <v>716206</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>763715</v>
+        <v>769340</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>766202</v>
+        <v>763458</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1824603</v>
+        <v>1823521</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1986714</v>
+        <v>1980559</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1953772</v>
+        <v>1945274</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1943458</v>
+        <v>1944116</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>846116</v>
+        <v>839665</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>998445</v>
+        <v>1003818</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1097642</v>
+        <v>1094901</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1251060</v>
+        <v>1257168</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>2699439</v>
+        <v>2691705</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>3012449</v>
+        <v>3011427</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>3082008</v>
+        <v>3076651</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>3226119</v>
+        <v>3221856</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1934480</v>
+        <v>1936489</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2104744</v>
+        <v>2102125</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2068168</v>
+        <v>2065992</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2072626</v>
+        <v>2078262</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>949907</v>
+        <v>946737</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1111665</v>
+        <v>1112148</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1208779</v>
+        <v>1213876</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1363811</v>
+        <v>1359236</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2858153</v>
+        <v>2850291</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>3189120</v>
+        <v>3185702</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>3252214</v>
+        <v>3242891</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>3400837</v>
+        <v>3403456</v>
       </c>
     </row>
     <row r="40">
